--- a/src/OscillationRates.xlsx
+++ b/src/OscillationRates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Research/FourierAnalysis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91740DE-6E8B-5B4C-A0AC-3F507A905422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D931AF35-FBA4-CB4C-8BA3-4DB5DF5CE83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31700" windowHeight="20500" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>kdx</t>
   </si>
   <si>
-    <t>numerical</t>
-  </si>
-  <si>
     <t>pi/2</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>pi/10</t>
   </si>
   <si>
-    <t>numberOfPeriods</t>
-  </si>
-  <si>
     <t>timeFinish</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>timeElapsed</t>
   </si>
   <si>
-    <t>analytical nondim by dx</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -92,18 +83,9 @@
     <t>too coarse</t>
   </si>
   <si>
-    <t>analytical / dx</t>
-  </si>
-  <si>
     <t>dx</t>
   </si>
   <si>
-    <t>with large time step</t>
-  </si>
-  <si>
-    <t>with small time step</t>
-  </si>
-  <si>
     <t>pi/15</t>
   </si>
   <si>
@@ -125,13 +107,49 @@
     <t>This should be kdx*u_t</t>
   </si>
   <si>
-    <t>This should be 2pi*u_t</t>
-  </si>
-  <si>
-    <t>needs smaller time step</t>
-  </si>
-  <si>
-    <t>B*E</t>
+    <t>From revised FA</t>
+  </si>
+  <si>
+    <t>Non-dominant eigenvector</t>
+  </si>
+  <si>
+    <t>Bad data</t>
+  </si>
+  <si>
+    <t>less damped</t>
+  </si>
+  <si>
+    <t>more damped</t>
+  </si>
+  <si>
+    <t>B*C</t>
+  </si>
+  <si>
+    <t>Nperiods</t>
+  </si>
+  <si>
+    <t>original FA</t>
+  </si>
+  <si>
+    <t>FA / dx</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>cycles/s</t>
+  </si>
+  <si>
+    <t>numerical omega</t>
+  </si>
+  <si>
+    <t>perturb shock pos</t>
+  </si>
+  <si>
+    <t>perturb v</t>
+  </si>
+  <si>
+    <t>oscillations of max(amplitude) vs t</t>
   </si>
 </sst>
 </file>
@@ -141,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,8 +174,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +198,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA49D"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,15 +228,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -241,32 +268,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,616 +672,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0554AB-DDDD-4942-9B9B-AE899116364D}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="E2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C9" si="0">I3/L3*2*3.1416</f>
+        <v>12.697478514586502</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*B3</f>
+        <v>3.1743696286466254</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="20">
+        <f>H3/B3</f>
+        <v>1.419859147943908</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.354964786985977</v>
+      </c>
+      <c r="I3" s="18">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.2537600000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.7176288263558996</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="1">K3-J3</f>
+        <v>3.4638688263558994</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:B10" si="0">H2/K2*2*3.1416</f>
-        <v>12.697478514586502</v>
-      </c>
-      <c r="C2" s="2">
-        <f>B2*F2</f>
-        <v>3.1743696286466254</v>
-      </c>
-      <c r="D2" s="2">
-        <f>E2/F2</f>
-        <v>1.419859147943908</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.354964786985977</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.2537600000000002</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5.7176288263558996</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K10" si="1">J2-I2</f>
-        <v>3.4638688263558994</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="B4" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>12.869925492815794</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C8" si="2">B3*F3</f>
+      <c r="D4" s="2">
+        <f>C4*B4</f>
         <v>2.1449875821359656</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D14" si="3">E3/F3</f>
+      <c r="E4" s="2">
+        <v>0.57564599999999999</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1.0422100000000001</v>
+      </c>
+      <c r="G4" s="20">
+        <f>H4/B4</f>
         <v>1.8444511378727282</v>
       </c>
-      <c r="E3" s="2">
+      <c r="H4" s="2">
         <v>0.30740852297878801</v>
       </c>
-      <c r="F3" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="1">
+      <c r="I4" s="18">
         <v>44</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J4" s="1">
         <v>3.1693500000000001</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K4" s="1">
         <v>24.650500000000001</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="1"/>
         <v>21.48115</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>12.879194805350631</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="2"/>
+      <c r="D5" s="2">
+        <f>C5*B5</f>
         <v>1.6098993506688288</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="3"/>
+      <c r="E5" s="2">
+        <v>0.65528699999999995</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1.02871</v>
+      </c>
+      <c r="G5" s="20">
+        <f>H5/B5</f>
         <v>2.0079840636817838</v>
       </c>
-      <c r="E4" s="2">
+      <c r="H5" s="2">
         <v>0.25099800796022298</v>
       </c>
-      <c r="F4" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1">
+      <c r="I5" s="18">
         <v>41</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J5" s="1">
         <v>3.0989200000000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K5" s="1">
         <v>23.101040000000001</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>20.002120000000001</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>13.137381136229695</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="2"/>
+      <c r="D6" s="2">
+        <f>C6*B6</f>
         <v>1.3137381136229695</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="3"/>
+      <c r="E6" s="2">
+        <v>0.634077</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.95660199999999995</v>
+      </c>
+      <c r="G6" s="20">
+        <f>H6/B6</f>
         <v>2.0864306687349599</v>
       </c>
-      <c r="E5" s="2">
+      <c r="H6" s="2">
         <v>0.20864306687349601</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1">
+      <c r="I6" s="18">
         <v>43</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J6" s="1">
         <v>3.0989200000000001</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="1">
         <v>23.664480000000001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>20.565560000000001</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>13.172239178888649</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="2"/>
+      <c r="D7" s="2">
+        <f>C7*B7</f>
         <v>1.0976865982407207</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="3"/>
+      <c r="E7" s="2">
+        <v>0.58382199999999995</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.87184099999999998</v>
+      </c>
+      <c r="G7" s="20">
+        <f>H7/B7</f>
         <v>2.129788721915856</v>
       </c>
-      <c r="E6" s="2">
+      <c r="H7" s="2">
         <v>0.177482393492988</v>
       </c>
-      <c r="F6" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="1">
+      <c r="I7" s="18">
         <v>44</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="1">
         <v>4.5075200000000004</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="1">
         <v>25.495660000000001</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="1"/>
         <v>20.988140000000001</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>13.415335869134713</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="2"/>
+      <c r="D8" s="2">
+        <f>C8*B8</f>
         <v>0.95823827636676517</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="3"/>
+      <c r="E8" s="2">
+        <v>0.53013699999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.79083000000000003</v>
+      </c>
+      <c r="G8" s="20">
+        <f>H8/B8</f>
         <v>2.1561882864556021</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H8" s="2">
         <v>0.15401344903254299</v>
       </c>
-      <c r="F7" s="7">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="1">
+      <c r="I8" s="18">
         <v>40</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>4.5075200000000004</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>23.241900000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
         <v>18.734380000000002</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>13.808045902988928</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="2"/>
+      <c r="D9" s="2">
+        <f>C9*B9</f>
         <v>0.863002868936808</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="3"/>
+      <c r="E9" s="2">
+        <v>0.48090100000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.71855199999999997</v>
+      </c>
+      <c r="G9" s="20">
+        <f>H9/B9</f>
         <v>2.173426288840592</v>
       </c>
-      <c r="E8" s="2">
+      <c r="H9" s="2">
         <v>0.135839143052537</v>
       </c>
-      <c r="F8" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1">
+      <c r="I9" s="18">
         <v>46</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>6.1133240000000004</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>27.045120000000001</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>20.931795999999999</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C10" s="3" t="e">
+        <f>I10/L10*2*3.1416</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="4" t="e">
+        <f>C10*B10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.43784299999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.65565700000000005</v>
+      </c>
+      <c r="G10" s="21">
+        <f>H10/B10</f>
+        <v>2.1852919317691621</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.12140510732050901</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="L10" s="3">
+        <f>K10-J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="3">
+        <f>I11/L11*2*3.1416</f>
+        <v>13.023735764031654</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11*B11</f>
+        <v>0.65118678820158271</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.40071899999999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.601325</v>
+      </c>
+      <c r="G11" s="21">
+        <f>H11/B11</f>
+        <v>2.1938030316670001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.10969015158335001</v>
+      </c>
+      <c r="I11" s="22">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>23.241742005033998</v>
+      </c>
+      <c r="K11" s="3">
+        <v>27.101279768293999</v>
+      </c>
+      <c r="L11" s="3">
+        <f>K11-J11</f>
+        <v>3.8595377632600005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>8.496077804990593</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1852919317691621</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.12140510732050901</v>
-      </c>
-      <c r="F9" s="16">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="3">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2.2538399999999998</v>
-      </c>
-      <c r="J9" s="3">
-        <v>22.960995</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="1"/>
-        <v>20.707155</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>8.496077804990593</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1938030316670001</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.10969015158335001</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="3">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2.2538399999999998</v>
-      </c>
-      <c r="J10" s="3">
-        <v>22.960995</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>20.707155</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>2.2140398712906002</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.3801329043020003E-2</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="B12" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>2.2211490624108396</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5.5528726560270997E-2</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="20">
+        <f>H12/B12</f>
+        <v>2.2140398712906002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7.3801329043020003E-2</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12:L15" si="2">K12-J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
         <f>1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2">
-        <f t="shared" si="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="20">
+        <f>H13/B13</f>
+        <v>2.2211490624108396</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.5528726560270997E-2</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="L13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="20">
+        <f>H14/B14</f>
         <v>2.22623542186644</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H14" s="1">
         <v>3.7103923697774002E-2</v>
       </c>
-      <c r="F13" s="6">
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2">
-        <f t="shared" si="3"/>
+      <c r="I14" s="18"/>
+      <c r="L14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="20">
+        <f>H15/B15</f>
         <v>2.2280172961717599</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H15" s="1">
         <v>2.7850216202147001E-2</v>
       </c>
-      <c r="F14" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="17"/>
-      <c r="D20" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="18" t="s">
+      <c r="I15" s="18"/>
+      <c r="L15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1">
+        <f>97/2/28.1718084909506</f>
+        <v>1.7215792168819855</v>
+      </c>
+      <c r="M20" s="1">
+        <f>49/2/14.0859042454753</f>
+        <v>1.7393274562312842</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="15">
+      <c r="F21" s="23"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1">
+        <f>2*3.1416*L20</f>
+        <v>10.817026535512891</v>
+      </c>
+      <c r="M21" s="1">
+        <f>2*3.1416*M20</f>
+        <v>10.928542272992404</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="10">
         <f>2*3.1416/(1/0.355)</f>
         <v>2.2305359999999999</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14">
+        <f>L21*0.05</f>
+        <v>0.54085132677564463</v>
+      </c>
+      <c r="M22" s="14">
+        <f>M21*0.05</f>
+        <v>0.54642711364962027</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="2">
+        <f>I29/L29*2*3.1416</f>
+        <v>2.9937110732755521</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C29*B29</f>
+        <v>0.14968555366377762</v>
+      </c>
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="9">
-        <f>H21/K21*2*3.1416</f>
-        <v>12.697478514586502</v>
-      </c>
-      <c r="H21" s="10">
-        <v>7</v>
-      </c>
-      <c r="I21" s="10">
-        <v>2.2537600000000002</v>
-      </c>
-      <c r="J21" s="10">
-        <v>5.7176288263558996</v>
-      </c>
-      <c r="K21" s="10">
-        <f>J21-I21</f>
-        <v>3.4638688263558994</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F22" s="12"/>
-      <c r="G22" s="13">
-        <f>H22/K22*2*3.1416</f>
-        <v>2.2528278669127735</v>
-      </c>
-      <c r="H22" s="14">
-        <v>5</v>
-      </c>
-      <c r="I22" s="14">
-        <v>3.0989200000000001</v>
-      </c>
-      <c r="J22" s="14">
-        <v>17.044060000000002</v>
-      </c>
-      <c r="K22" s="14">
-        <f>J22-I22</f>
-        <v>13.945140000000002</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="2"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="2"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="2"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="2"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="2"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="2"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="J29" s="1">
+        <v>0.25354627641855998</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4.4511457415702003</v>
+      </c>
+      <c r="L29" s="1">
+        <f>K29-J29</f>
+        <v>4.1975994651516402</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="2"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="2"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="2"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="2"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="2"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/OscillationRates.xlsx
+++ b/src/OscillationRates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Research/FourierAnalysis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D931AF35-FBA4-CB4C-8BA3-4DB5DF5CE83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02674F3E-7B10-A246-AF83-88B3628E6D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>kdx</t>
   </si>
@@ -150,14 +151,48 @@
   </si>
   <si>
     <t>oscillations of max(amplitude) vs t</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>Ncycles</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>Ncycle / 2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>for very long wavelengths, shock motion eig vals become least damped, but also much less dominant</t>
+  </si>
+  <si>
+    <t>Shock motion eig vals from revised FA</t>
+  </si>
+  <si>
+    <t>Try again with perturbation exactly from eigenvalue</t>
+  </si>
+  <si>
+    <t>perturb all vars using eigenvector</t>
+  </si>
+  <si>
+    <t>upwind</t>
+  </si>
+  <si>
+    <t>central diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -189,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +241,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,6 +260,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -316,7 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,32 +375,43 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -672,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0554AB-DDDD-4942-9B9B-AE899116364D}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,54 +746,55 @@
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="6" width="15.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="E2" s="26" t="s">
         <v>27</v>
@@ -741,9 +803,9 @@
         <v>28</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -751,11 +813,11 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C9" si="0">I3/L3*2*3.1416</f>
+        <f t="shared" ref="C3:C9" si="0">J3/M3*2*3.1416</f>
         <v>12.697478514586502</v>
       </c>
       <c r="D3" s="2">
-        <f>C3*B3</f>
+        <f t="shared" ref="D3:D11" si="1">C3*B3</f>
         <v>3.1743696286466254</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -765,30 +827,31 @@
         <v>26</v>
       </c>
       <c r="G3" s="20">
-        <f>H3/B3</f>
+        <f t="shared" ref="G3:G15" si="2">H3/B3</f>
         <v>1.419859147943908</v>
       </c>
       <c r="H3" s="2">
         <v>0.354964786985977</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="2"/>
+      <c r="J3" s="18">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2.2537600000000002</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>5.7176288263558996</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L9" si="1">K3-J3</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">L3-K3</f>
         <v>3.4638688263558994</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -800,7 +863,7 @@
         <v>12.869925492815794</v>
       </c>
       <c r="D4" s="2">
-        <f>C4*B4</f>
+        <f t="shared" si="1"/>
         <v>2.1449875821359656</v>
       </c>
       <c r="E4" s="2">
@@ -810,30 +873,31 @@
         <v>1.0422100000000001</v>
       </c>
       <c r="G4" s="20">
-        <f>H4/B4</f>
+        <f t="shared" si="2"/>
         <v>1.8444511378727282</v>
       </c>
       <c r="H4" s="2">
         <v>0.30740852297878801</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="2"/>
+      <c r="J4" s="18">
         <v>44</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>3.1693500000000001</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>24.650500000000001</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="1"/>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
         <v>21.48115</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -845,7 +909,7 @@
         <v>12.879194805350631</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*B5</f>
+        <f t="shared" si="1"/>
         <v>1.6098993506688288</v>
       </c>
       <c r="E5" s="2">
@@ -855,30 +919,31 @@
         <v>1.02871</v>
       </c>
       <c r="G5" s="20">
-        <f>H5/B5</f>
+        <f t="shared" si="2"/>
         <v>2.0079840636817838</v>
       </c>
       <c r="H5" s="2">
         <v>0.25099800796022298</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="2"/>
+      <c r="J5" s="18">
         <v>41</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>3.0989200000000001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>23.101040000000001</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
         <v>20.002120000000001</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -890,7 +955,7 @@
         <v>13.137381136229695</v>
       </c>
       <c r="D6" s="2">
-        <f>C6*B6</f>
+        <f t="shared" si="1"/>
         <v>1.3137381136229695</v>
       </c>
       <c r="E6" s="2">
@@ -900,30 +965,31 @@
         <v>0.95660199999999995</v>
       </c>
       <c r="G6" s="20">
-        <f>H6/B6</f>
+        <f t="shared" si="2"/>
         <v>2.0864306687349599</v>
       </c>
       <c r="H6" s="2">
         <v>0.20864306687349601</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="2"/>
+      <c r="J6" s="18">
         <v>43</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>3.0989200000000001</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>23.664480000000001</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
         <v>20.565560000000001</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -935,7 +1001,7 @@
         <v>13.172239178888649</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*B7</f>
+        <f t="shared" si="1"/>
         <v>1.0976865982407207</v>
       </c>
       <c r="E7" s="2">
@@ -945,30 +1011,31 @@
         <v>0.87184099999999998</v>
       </c>
       <c r="G7" s="20">
-        <f>H7/B7</f>
+        <f t="shared" si="2"/>
         <v>2.129788721915856</v>
       </c>
       <c r="H7" s="2">
         <v>0.177482393492988</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="2"/>
+      <c r="J7" s="18">
         <v>44</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>4.5075200000000004</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>25.495660000000001</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
         <v>20.988140000000001</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1047,7 @@
         <v>13.415335869134713</v>
       </c>
       <c r="D8" s="2">
-        <f>C8*B8</f>
+        <f t="shared" si="1"/>
         <v>0.95823827636676517</v>
       </c>
       <c r="E8" s="2">
@@ -990,30 +1057,31 @@
         <v>0.79083000000000003</v>
       </c>
       <c r="G8" s="20">
-        <f>H8/B8</f>
+        <f t="shared" si="2"/>
         <v>2.1561882864556021</v>
       </c>
       <c r="H8" s="2">
         <v>0.15401344903254299</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="2"/>
+      <c r="J8" s="18">
         <v>40</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>4.5075200000000004</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>23.241900000000001</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
         <v>18.734380000000002</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1093,7 @@
         <v>13.808045902988928</v>
       </c>
       <c r="D9" s="2">
-        <f>C9*B9</f>
+        <f t="shared" si="1"/>
         <v>0.863002868936808</v>
       </c>
       <c r="E9" s="2">
@@ -1035,42 +1103,43 @@
         <v>0.71855199999999997</v>
       </c>
       <c r="G9" s="20">
-        <f>H9/B9</f>
+        <f t="shared" si="2"/>
         <v>2.173426288840592</v>
       </c>
       <c r="H9" s="2">
         <v>0.135839143052537</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="2"/>
+      <c r="J9" s="18">
         <v>46</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>6.1133240000000004</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>27.045120000000001</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
         <v>20.931795999999999</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C10" s="3" t="e">
-        <f>I10/L10*2*3.1416</f>
+        <f>J10/M10*2*3.1416</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="4" t="e">
-        <f>C10*B10</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="4">
@@ -1080,31 +1149,32 @@
         <v>0.65565700000000005</v>
       </c>
       <c r="G10" s="21">
-        <f>H10/B10</f>
+        <f t="shared" si="2"/>
         <v>2.1852919317691621</v>
       </c>
       <c r="H10" s="4">
         <v>0.12140510732050901</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="L10" s="3">
-        <f>K10-J10</f>
+      <c r="I10" s="4"/>
+      <c r="J10" s="22"/>
+      <c r="M10" s="3">
+        <f>L10-K10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>0.05</v>
       </c>
       <c r="C11" s="3">
-        <f>I11/L11*2*3.1416</f>
+        <f>J11/M11*2*3.1416</f>
         <v>13.023735764031654</v>
       </c>
       <c r="D11" s="4">
-        <f>C11*B11</f>
+        <f t="shared" si="1"/>
         <v>0.65118678820158271</v>
       </c>
       <c r="E11" s="4">
@@ -1114,27 +1184,28 @@
         <v>0.601325</v>
       </c>
       <c r="G11" s="21">
-        <f>H11/B11</f>
+        <f t="shared" si="2"/>
         <v>2.1938030316670001</v>
       </c>
       <c r="H11" s="4">
         <v>0.10969015158335001</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="4"/>
+      <c r="J11" s="22">
         <v>8</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>23.241742005033998</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>27.101279768293999</v>
       </c>
-      <c r="L11" s="3">
-        <f>K11-J11</f>
+      <c r="M11" s="3">
+        <f>L11-K11</f>
         <v>3.8595377632600005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
@@ -1147,19 +1218,20 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="20">
-        <f>H12/B12</f>
+        <f t="shared" si="2"/>
         <v>2.2140398712906002</v>
       </c>
       <c r="H12" s="2">
         <v>7.3801329043020003E-2</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="L12" s="3">
-        <f t="shared" ref="L12:L15" si="2">K12-J12</f>
+      <c r="I12" s="2"/>
+      <c r="J12" s="18"/>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12:M15" si="4">L12-K12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -1171,19 +1243,19 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="20">
-        <f>H13/B13</f>
+        <f t="shared" si="2"/>
         <v>2.2211490624108396</v>
       </c>
       <c r="H13" s="1">
         <v>5.5528726560270997E-2</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="L13" s="3">
-        <f t="shared" si="2"/>
+      <c r="J13" s="18"/>
+      <c r="M13" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
@@ -1194,19 +1266,19 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="20">
-        <f>H14/B14</f>
+        <f t="shared" si="2"/>
         <v>2.22623542186644</v>
       </c>
       <c r="H14" s="1">
         <v>3.7103923697774002E-2</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="L14" s="3">
-        <f t="shared" si="2"/>
+      <c r="J14" s="18"/>
+      <c r="M14" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
@@ -1217,184 +1289,226 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="20">
-        <f>H15/B15</f>
+        <f t="shared" si="2"/>
         <v>2.2280172961717599</v>
       </c>
       <c r="H15" s="1">
         <v>2.7850216202147001E-2</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="L15" s="3">
-        <f t="shared" si="2"/>
+      <c r="J15" s="18"/>
+      <c r="M15" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L18" s="1" t="s">
+      <c r="M17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L19" s="1" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K20" s="1" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <f>98/2/28.1718084909506</f>
+        <v>1.7393274562312842</v>
+      </c>
+      <c r="J20" s="1">
+        <f>99/2/28.1718084909506</f>
+        <v>1.7570756955805831</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <f>97/2/28.1718084909506</f>
         <v>1.7215792168819855</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <f>49/2/14.0859042454753</f>
         <v>1.7393274562312842</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E21" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="23"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="I21" s="15">
+        <f>2*3.1416*I20</f>
+        <v>10.928542272992404</v>
+      </c>
+      <c r="J21" s="1">
+        <f>2*3.1416*J20</f>
+        <v>11.040058010471919</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L21" s="1">
-        <f>2*3.1416*L20</f>
-        <v>10.817026535512891</v>
       </c>
       <c r="M21" s="1">
         <f>2*3.1416*M20</f>
+        <v>10.817026535512891</v>
+      </c>
+      <c r="N21" s="1">
+        <f>2*3.1416*N20</f>
         <v>10.928542272992404</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="11">
         <f>2*3.1416/(1/0.355)</f>
         <v>2.2305359999999999</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14">
-        <f>L21*0.05</f>
+      <c r="I22" s="15">
+        <f>I21*B9</f>
+        <v>0.68303389206202525</v>
+      </c>
+      <c r="J22" s="15">
+        <f>J21*B8</f>
+        <v>0.7885755721765656</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15">
+        <f>M21*0.05</f>
         <v>0.54085132677564463</v>
       </c>
-      <c r="M22" s="14">
-        <f>M21*0.05</f>
+      <c r="N22" s="15">
+        <f>N21*0.05</f>
         <v>0.54642711364962027</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>0.05</v>
       </c>
       <c r="C29" s="2">
-        <f>I29/L29*2*3.1416</f>
+        <f>J29/M29*2*3.1416</f>
         <v>2.9937110732755521</v>
       </c>
       <c r="D29" s="1">
         <f>C29*B29</f>
         <v>0.14968555366377762</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>0.25354627641855998</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>4.4511457415702003</v>
       </c>
-      <c r="L29" s="1">
-        <f>K29-J29</f>
+      <c r="M29" s="1">
+        <f>L29-K29</f>
         <v>4.1975994651516402</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="2"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H34" s="2"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H35" s="2"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H36" s="2"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="2"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H37" s="2"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="2"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H38" s="2"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="2"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H39" s="2"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="2"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="4"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="4"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
     </row>
   </sheetData>
@@ -1403,4 +1517,784 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C084DA23-C2D9-E143-8245-CB1E8FD4B3B1}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="E2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="33">
+        <f>I3/J3*2*3.1416</f>
+        <v>9.4247999999999994</v>
+      </c>
+      <c r="D3" s="25">
+        <f t="shared" ref="D3:D12" si="0">C3*B3</f>
+        <v>2.3561999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I12" si="1">H3/2</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C4" s="33">
+        <f t="shared" ref="C4:C12" si="2">I4/J4*2*3.1416</f>
+        <v>10.2102</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" si="0"/>
+        <v>1.7017</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5756</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.57564599999999999</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1.0422100000000001</v>
+      </c>
+      <c r="H4" s="18">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="33">
+        <f t="shared" si="2"/>
+        <v>10.472</v>
+      </c>
+      <c r="D5" s="32">
+        <f t="shared" si="0"/>
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.65528699999999995</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1.02871</v>
+      </c>
+      <c r="H5" s="18">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="33">
+        <f t="shared" si="2"/>
+        <v>10.6029</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" si="0"/>
+        <v>1.06029</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.634077</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.95660199999999995</v>
+      </c>
+      <c r="H6" s="18">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C7" s="33">
+        <f t="shared" si="2"/>
+        <v>10.546799999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8788999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.58382199999999995</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.87184099999999998</v>
+      </c>
+      <c r="H7" s="18">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C8" s="33">
+        <f t="shared" si="2"/>
+        <v>11.040058010471919</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.7885755721765656</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.53013699999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.79083000000000003</v>
+      </c>
+      <c r="H8" s="18">
+        <v>99</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>28.1718084909506</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C9" s="33">
+        <f t="shared" si="2"/>
+        <v>10.928542272992404</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="0"/>
+        <v>0.68303389206202525</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.48090100000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.71855199999999997</v>
+      </c>
+      <c r="H9" s="18">
+        <v>98</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="1">
+        <v>28.1718084909506</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C10" s="33">
+        <f t="shared" si="2"/>
+        <v>10.52436</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.58468666666666658</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.43784299999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.65565700000000005</v>
+      </c>
+      <c r="H10" s="22">
+        <v>33.5</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="33">
+        <f t="shared" si="2"/>
+        <v>10.817026535512891</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" si="0"/>
+        <v>0.54085132677564463</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5454</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.40071899999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.601325</v>
+      </c>
+      <c r="H11" s="22">
+        <v>97</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>48.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>28.1718084909506</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C12" s="33">
+        <f t="shared" si="2"/>
+        <v>10.42566371681416</v>
+      </c>
+      <c r="D12" s="31">
+        <f t="shared" si="0"/>
+        <v>0.34752212389380532</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.27765699999999999</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.41929899999999998</v>
+      </c>
+      <c r="H12" s="18">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <f>1/40</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="2">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.21030099999999999</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.31916</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="2">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.141624</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.21520900000000001</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="2">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.10648299999999999</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.16167100000000001</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="K18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="13"/>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="15">
+        <f>97/2/28.1718084909506</f>
+        <v>1.7215792168819855</v>
+      </c>
+      <c r="L20" s="16">
+        <f>49/2/14.0859042454753</f>
+        <v>1.7393274562312842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="J21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="15">
+        <f>2*3.1416*K20</f>
+        <v>10.817026535512891</v>
+      </c>
+      <c r="L21" s="16">
+        <f>2*3.1416*L20</f>
+        <v>10.928542272992404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="10">
+        <f>K21*0.05</f>
+        <v>0.54085132677564463</v>
+      </c>
+      <c r="L22" s="11">
+        <f>L21*0.05</f>
+        <v>0.54642711364962027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C28" s="33">
+        <f t="shared" ref="C28:C29" si="3">I28/J28*2*3.1416</f>
+        <v>10.472</v>
+      </c>
+      <c r="D28" s="1">
+        <f>C28*B28</f>
+        <v>0.74799999999999989</v>
+      </c>
+      <c r="H28" s="18">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28:I29" si="4">H28/2</f>
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="33">
+        <f t="shared" si="3"/>
+        <v>10.472</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C29*B29</f>
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="H29" s="1">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C32" s="33">
+        <f t="shared" ref="C32:C33" si="5">I32/J32*2*3.1416</f>
+        <v>10.472</v>
+      </c>
+      <c r="D32" s="1">
+        <f>C32*B32</f>
+        <v>0.74799999999999989</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ref="I32:I33" si="6">H32/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C33" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="1" t="e">
+        <f>C33*B33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <f>I39/J39*2*3.1416</f>
+        <v>0.53407199999999999</v>
+      </c>
+      <c r="H39" s="36">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1">
+        <f>H39/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/OscillationRates.xlsx
+++ b/src/OscillationRates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Research/FourierAnalysis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02674F3E-7B10-A246-AF83-88B3628E6D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD24381-D023-8749-A2DD-EDF3B9561285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>kdx</t>
   </si>
@@ -184,15 +185,43 @@
   </si>
   <si>
     <t>central diff</t>
+  </si>
+  <si>
+    <t>2D FEM</t>
+  </si>
+  <si>
+    <t>1D FVM</t>
+  </si>
+  <si>
+    <t>Fourier</t>
+  </si>
+  <si>
+    <t>Decay Rates: tantheta = 0.1</t>
+  </si>
+  <si>
+    <t>Decay Rates: tantheta = 0.0</t>
+  </si>
+  <si>
+    <t>Vcol</t>
+  </si>
+  <si>
+    <t>Vcol2: hump develops for both codes around t=20</t>
+  </si>
+  <si>
+    <t>RT dominant perturbation</t>
+  </si>
+  <si>
+    <t>p and u dominate perturbation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -366,7 +395,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,13 +434,17 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -768,10 +801,10 @@
       <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C084DA23-C2D9-E143-8245-CB1E8FD4B3B1}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -1555,11 +1588,11 @@
       <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
@@ -2261,17 +2294,17 @@
       </c>
       <c r="C39" s="1">
         <f>I39/J39*2*3.1416</f>
-        <v>0.53407199999999999</v>
-      </c>
-      <c r="H39" s="36">
-        <v>17</v>
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="H39" s="34">
+        <v>5</v>
       </c>
       <c r="I39" s="1">
         <f>H39/2</f>
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="J39" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2297,4 +2330,151 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0E5E5-804E-294A-9445-09408EBC9CE6}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.20966499999999999</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.20966499999999999</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0.22932</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.22212699999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.49003999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>131</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>168</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1.01</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.91507000000000005</v>
+      </c>
+      <c r="J5">
+        <v>1.0916999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/src/OscillationRates.xlsx
+++ b/src/OscillationRates.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Research/FourierAnalysis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD24381-D023-8749-A2DD-EDF3B9561285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463753C8-D7DD-5840-9926-B8E06C932F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29140" windowHeight="20500" activeTab="1" xr2:uid="{60426555-CA7B-3641-8465-F4E60B8F88C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="tantheta" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>kdx</t>
   </si>
@@ -154,64 +153,43 @@
     <t>oscillations of max(amplitude) vs t</t>
   </si>
   <si>
-    <t>weighted avg</t>
-  </si>
-  <si>
-    <t>Ncycles</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>Ncycle / 2</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>for very long wavelengths, shock motion eig vals become least damped, but also much less dominant</t>
-  </si>
-  <si>
-    <t>Shock motion eig vals from revised FA</t>
-  </si>
-  <si>
-    <t>Try again with perturbation exactly from eigenvalue</t>
-  </si>
-  <si>
-    <t>perturb all vars using eigenvector</t>
-  </si>
-  <si>
     <t>upwind</t>
   </si>
   <si>
-    <t>central diff</t>
-  </si>
-  <si>
-    <t>2D FEM</t>
-  </si>
-  <si>
-    <t>1D FVM</t>
-  </si>
-  <si>
-    <t>Fourier</t>
-  </si>
-  <si>
-    <t>Decay Rates: tantheta = 0.1</t>
-  </si>
-  <si>
-    <t>Decay Rates: tantheta = 0.0</t>
-  </si>
-  <si>
-    <t>Vcol</t>
-  </si>
-  <si>
-    <t>Vcol2: hump develops for both codes around t=20</t>
-  </si>
-  <si>
-    <t>RT dominant perturbation</t>
-  </si>
-  <si>
-    <t>p and u dominate perturbation</t>
+    <t>tstart</t>
+  </si>
+  <si>
+    <t>tend</t>
+  </si>
+  <si>
+    <t>telapsed</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>tantheta=10</t>
+  </si>
+  <si>
+    <t>tantheta=5</t>
+  </si>
+  <si>
+    <t>tantheta=7.5</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>tantheta=2.5</t>
+  </si>
+  <si>
+    <t>Fourier omega</t>
+  </si>
+  <si>
+    <t>% Difference</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -221,9 +199,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +226,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,15 +282,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -390,12 +374,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,52 +389,49 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,7 +751,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,58 +770,58 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="E2" s="26" t="s">
+      <c r="A2" s="15"/>
+      <c r="E2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
@@ -853,13 +835,13 @@
         <f t="shared" ref="D3:D11" si="1">C3*B3</f>
         <v>3.1743696286466254</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f t="shared" ref="G3:G15" si="2">H3/B3</f>
         <v>1.419859147943908</v>
       </c>
@@ -867,7 +849,7 @@
         <v>0.354964786985977</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>7</v>
       </c>
       <c r="K3" s="1">
@@ -885,7 +867,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
@@ -902,10 +884,10 @@
       <c r="E4" s="2">
         <v>0.57564599999999999</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>1.0422100000000001</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" si="2"/>
         <v>1.8444511378727282</v>
       </c>
@@ -913,7 +895,7 @@
         <v>0.30740852297878801</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>44</v>
       </c>
       <c r="K4" s="1">
@@ -931,7 +913,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
@@ -948,10 +930,10 @@
       <c r="E5" s="2">
         <v>0.65528699999999995</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>1.02871</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="2"/>
         <v>2.0079840636817838</v>
       </c>
@@ -959,7 +941,7 @@
         <v>0.25099800796022298</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>41</v>
       </c>
       <c r="K5" s="1">
@@ -977,7 +959,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
@@ -997,7 +979,7 @@
       <c r="F6" s="2">
         <v>0.95660199999999995</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="2"/>
         <v>2.0864306687349599</v>
       </c>
@@ -1005,7 +987,7 @@
         <v>0.20864306687349601</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>43</v>
       </c>
       <c r="K6" s="1">
@@ -1023,7 +1005,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
@@ -1043,7 +1025,7 @@
       <c r="F7" s="2">
         <v>0.87184099999999998</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="2"/>
         <v>2.129788721915856</v>
       </c>
@@ -1051,7 +1033,7 @@
         <v>0.177482393492988</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>44</v>
       </c>
       <c r="K7" s="1">
@@ -1069,7 +1051,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
@@ -1089,7 +1071,7 @@
       <c r="F8" s="2">
         <v>0.79083000000000003</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="2"/>
         <v>2.1561882864556021</v>
       </c>
@@ -1097,7 +1079,7 @@
         <v>0.15401344903254299</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>40</v>
       </c>
       <c r="K8" s="1">
@@ -1115,7 +1097,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
@@ -1135,7 +1117,7 @@
       <c r="F9" s="2">
         <v>0.71855199999999997</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" si="2"/>
         <v>2.173426288840592</v>
       </c>
@@ -1143,7 +1125,7 @@
         <v>0.135839143052537</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>46</v>
       </c>
       <c r="K9" s="1">
@@ -1161,10 +1143,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C10" s="3" t="e">
@@ -1181,7 +1163,7 @@
       <c r="F10" s="4">
         <v>0.65565700000000005</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <f t="shared" si="2"/>
         <v>2.1852919317691621</v>
       </c>
@@ -1189,17 +1171,17 @@
         <v>0.12140510732050901</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="21"/>
       <c r="M10" s="3">
         <f>L10-K10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>0.05</v>
       </c>
       <c r="C11" s="3">
@@ -1216,7 +1198,7 @@
       <c r="F11" s="4">
         <v>0.601325</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <f t="shared" si="2"/>
         <v>2.1938030316670001</v>
       </c>
@@ -1224,7 +1206,7 @@
         <v>0.10969015158335001</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>8</v>
       </c>
       <c r="K11" s="3">
@@ -1239,7 +1221,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5">
@@ -1250,7 +1232,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="2"/>
         <v>2.2140398712906002</v>
       </c>
@@ -1258,14 +1240,14 @@
         <v>7.3801329043020003E-2</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="17"/>
       <c r="M12" s="3">
         <f t="shared" ref="M12:M15" si="4">L12-K12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5">
@@ -1275,21 +1257,21 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="2"/>
         <v>2.2211490624108396</v>
       </c>
       <c r="H13" s="1">
         <v>5.5528726560270997E-2</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="17"/>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5">
@@ -1298,21 +1280,21 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="2"/>
         <v>2.22623542186644</v>
       </c>
       <c r="H14" s="1">
         <v>3.7103923697774002E-2</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="17"/>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5">
@@ -1321,20 +1303,20 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" si="2"/>
         <v>2.2280172961717599</v>
       </c>
       <c r="H15" s="1">
         <v>2.7850216202147001E-2</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H17" s="1" t="s">
         <v>23</v>
@@ -1384,15 +1366,15 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="8" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f>2*3.1416*I20</f>
         <v>10.928542272992404</v>
       </c>
@@ -1413,42 +1395,42 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14" t="s">
+      <c r="B22" s="18"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <f>2*3.1416/(1/0.355)</f>
         <v>2.2305359999999999</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f>I21*B9</f>
         <v>0.68303389206202525</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <f>J21*B8</f>
         <v>0.7885755721765656</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14">
         <f>M21*0.05</f>
         <v>0.54085132677564463</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f>N21*0.05</f>
         <v>0.54642711364962027</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
@@ -1468,24 +1450,24 @@
       </c>
       <c r="C29" s="2">
         <f>J29/M29*2*3.1416</f>
-        <v>2.9937110732755521</v>
+        <v>5.5850666666666662</v>
       </c>
       <c r="D29" s="1">
         <f>C29*B29</f>
-        <v>0.14968555366377762</v>
+        <v>0.2792533333333333</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
       </c>
       <c r="K29" s="1">
-        <v>0.25354627641855998</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>4.4511457415702003</v>
+        <v>2.25</v>
       </c>
       <c r="M29" s="1">
         <f>L29-K29</f>
-        <v>4.1975994651516402</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -1533,13 +1515,13 @@
       <c r="A40" s="3"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -1553,928 +1535,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C084DA23-C2D9-E143-8245-CB1E8FD4B3B1}">
-  <dimension ref="A1:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB8392-BBA2-C64B-9507-9E6AA691D427}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="17">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D3" s="1">
+        <v>3.984375</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3-C3</f>
+        <v>3.984375</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3/E3</f>
+        <v>1.7568627450980392</v>
+      </c>
+      <c r="G3" s="36">
+        <f>2*3.1416*F3</f>
+        <v>11.03872</v>
+      </c>
+      <c r="H3" s="28">
+        <v>10.9442</v>
+      </c>
+      <c r="I3" s="37">
+        <f>ABS(G3-H3)/H3</f>
+        <v>8.6365380749620132E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="17">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.84375</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4-C4</f>
+        <v>3.84375</v>
+      </c>
+      <c r="F4" s="1">
+        <f>B4/E4</f>
+        <v>1.3008130081300813</v>
+      </c>
+      <c r="G4" s="36">
+        <f>2*3.1416*F4</f>
+        <v>8.173268292682927</v>
+      </c>
+      <c r="H4" s="28">
+        <v>8.1973000000000003</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" ref="I4:I14" si="0">ABS(G4-H4)/H4</f>
+        <v>2.9316613173939309E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="14" t="s">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-C5</f>
+        <v>2.25</v>
+      </c>
+      <c r="F5" s="1">
+        <f>B5/E5</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G5" s="36">
+        <f>2*3.1416*F5</f>
+        <v>5.5850666666666662</v>
+      </c>
+      <c r="H5" s="28">
+        <v>5.4451999999999998</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="0"/>
+        <v>2.568623129851362E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.453125</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6-C6</f>
+        <v>1.359375</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B6/E6</f>
+        <v>0.36781609195402298</v>
+      </c>
+      <c r="G6" s="36">
+        <f>2*3.1416*F6</f>
+        <v>2.311062068965517</v>
+      </c>
+      <c r="H6" s="28">
+        <v>2.3837999999999999</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="0"/>
+        <v>3.0513436963874024E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="17"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="F10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.984375</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11-C11</f>
+        <v>3.984375</v>
+      </c>
+      <c r="F11" s="1">
+        <f>B11/E11</f>
+        <v>1.7568627450980392</v>
+      </c>
+      <c r="G11" s="36">
+        <f>2*3.1416*F11</f>
+        <v>11.03872</v>
+      </c>
+      <c r="H11" s="28">
+        <v>10.962400000000001</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9619791286578718E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.7734375</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12-C12</f>
+        <v>3.7734375</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B12/E12</f>
+        <v>1.3250517598343685</v>
+      </c>
+      <c r="G12" s="36">
+        <f>2*3.1416*F12</f>
+        <v>8.3255652173913042</v>
+      </c>
+      <c r="H12" s="28">
+        <v>8.2171000000000003</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.3199938833810453E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="17">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.375</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13-C13</f>
+        <v>3.375</v>
+      </c>
+      <c r="F13" s="1">
+        <f>B13/E13</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G13" s="36">
+        <f>2*3.1416*F13</f>
+        <v>5.5850666666666662</v>
+      </c>
+      <c r="H13" s="28">
+        <v>5.4687000000000001</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="0"/>
+        <v>2.1278670738322829E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.171875</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14-C14</f>
+        <v>1.078125</v>
+      </c>
+      <c r="F14" s="1">
+        <f>B14/E14</f>
+        <v>0.46376811594202899</v>
+      </c>
+      <c r="G14" s="36">
+        <f>2*3.1416*F14</f>
+        <v>2.9139478260869565</v>
+      </c>
+      <c r="H14" s="28">
+        <v>2.7898000000000001</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="0"/>
+        <v>4.450061871351222E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="E2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="33">
-        <f>I3/J3*2*3.1416</f>
-        <v>9.4247999999999994</v>
-      </c>
-      <c r="D3" s="25">
-        <f t="shared" ref="D3:D12" si="0">C3*B3</f>
-        <v>2.3561999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.89190000000000003</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="18">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I12" si="1">H3/2</f>
-        <v>3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C4" s="33">
-        <f t="shared" ref="C4:C12" si="2">I4/J4*2*3.1416</f>
-        <v>10.2102</v>
-      </c>
-      <c r="D4" s="25">
-        <f t="shared" si="0"/>
-        <v>1.7017</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.5756</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.57564599999999999</v>
-      </c>
-      <c r="G4" s="23">
-        <v>1.0422100000000001</v>
-      </c>
-      <c r="H4" s="18">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="33">
-        <f t="shared" si="2"/>
-        <v>10.472</v>
-      </c>
-      <c r="D5" s="32">
-        <f t="shared" si="0"/>
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.67689999999999995</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.65528699999999995</v>
-      </c>
-      <c r="G5" s="23">
-        <v>1.02871</v>
-      </c>
-      <c r="H5" s="18">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="33">
-        <f t="shared" si="2"/>
-        <v>10.6029</v>
-      </c>
-      <c r="D6" s="32">
-        <f t="shared" si="0"/>
-        <v>1.06029</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.78439999999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.634077</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.95660199999999995</v>
-      </c>
-      <c r="H6" s="18">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C7" s="33">
-        <f t="shared" si="2"/>
-        <v>10.546799999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8788999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.73619999999999997</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.58382199999999995</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.87184099999999998</v>
-      </c>
-      <c r="H7" s="18">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>23.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="C8" s="33">
-        <f t="shared" si="2"/>
-        <v>11.040058010471919</v>
-      </c>
-      <c r="D8" s="30">
-        <f t="shared" si="0"/>
-        <v>0.7885755721765656</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.53013699999999997</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.79083000000000003</v>
-      </c>
-      <c r="H8" s="18">
-        <v>99</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>28.1718084909506</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C9" s="33">
-        <f t="shared" si="2"/>
-        <v>10.928542272992404</v>
-      </c>
-      <c r="D9" s="30">
-        <f t="shared" si="0"/>
-        <v>0.68303389206202525</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.62590000000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.48090100000000002</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.71855199999999997</v>
-      </c>
-      <c r="H9" s="18">
-        <v>98</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
+      <c r="G18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="1">
-        <v>28.1718084909506</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="C10" s="33">
-        <f t="shared" si="2"/>
-        <v>10.52436</v>
-      </c>
-      <c r="D10" s="31">
-        <f t="shared" si="0"/>
-        <v>0.58468666666666658</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.58230000000000004</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.43784299999999998</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.65565700000000005</v>
-      </c>
-      <c r="H10" s="22">
-        <v>33.5</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>16.75</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="33">
-        <f t="shared" si="2"/>
-        <v>10.817026535512891</v>
-      </c>
-      <c r="D11" s="31">
-        <f t="shared" si="0"/>
-        <v>0.54085132677564463</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.5454</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.40071899999999999</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.601325</v>
-      </c>
-      <c r="H11" s="22">
-        <v>97</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>48.5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>28.1718084909506</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="C12" s="33">
-        <f t="shared" si="2"/>
-        <v>10.42566371681416</v>
-      </c>
-      <c r="D12" s="31">
-        <f t="shared" si="0"/>
-        <v>0.34752212389380532</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.27765699999999999</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.41929899999999998</v>
-      </c>
-      <c r="H12" s="18">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5">
-        <f>1/40</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="2">
-        <v>0.36030000000000001</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.21030099999999999</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.31916</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="2">
-        <v>0.29189999999999999</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0.141624</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.21520900000000001</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="2">
-        <v>0.25750000000000001</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0.10648299999999999</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0.16167100000000001</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="K18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J19" s="13"/>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="15">
-        <f>97/2/28.1718084909506</f>
-        <v>1.7215792168819855</v>
-      </c>
-      <c r="L20" s="16">
-        <f>49/2/14.0859042454753</f>
-        <v>1.7393274562312842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="J21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="15">
-        <f>2*3.1416*K20</f>
-        <v>10.817026535512891</v>
-      </c>
-      <c r="L21" s="16">
-        <f>2*3.1416*L20</f>
-        <v>10.928542272992404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="10">
-        <f>K21*0.05</f>
-        <v>0.54085132677564463</v>
-      </c>
-      <c r="L22" s="11">
-        <f>L21*0.05</f>
-        <v>0.54642711364962027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="C28" s="33">
-        <f t="shared" ref="C28:C29" si="3">I28/J28*2*3.1416</f>
-        <v>10.472</v>
-      </c>
-      <c r="D28" s="1">
-        <f>C28*B28</f>
-        <v>0.74799999999999989</v>
-      </c>
-      <c r="H28" s="18">
-        <v>10</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" ref="I28:I29" si="4">H28/2</f>
-        <v>5</v>
-      </c>
-      <c r="J28" s="1">
-        <v>3</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C29" s="33">
-        <f t="shared" si="3"/>
-        <v>10.472</v>
-      </c>
-      <c r="D29" s="1">
-        <f>C29*B29</f>
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="H29" s="1">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
-        <v>6</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="6">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="C32" s="33">
-        <f t="shared" ref="C32:C33" si="5">I32/J32*2*3.1416</f>
-        <v>10.472</v>
-      </c>
-      <c r="D32" s="1">
-        <f>C32*B32</f>
-        <v>0.74799999999999989</v>
-      </c>
-      <c r="H32" s="18">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" ref="I32:I33" si="6">H32/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C33" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="1" t="e">
-        <f>C33*B33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <f>I39/J39*2*3.1416</f>
-        <v>0.52359999999999995</v>
-      </c>
-      <c r="H39" s="34">
-        <v>5</v>
-      </c>
-      <c r="I39" s="1">
-        <f>H39/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="J39" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
+      <c r="I18" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="17">
+        <f>4/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19-C19</f>
+        <v>0.515625</v>
+      </c>
+      <c r="F19" s="1">
+        <f>B19/E19</f>
+        <v>0.38787878787878788</v>
+      </c>
+      <c r="G19" s="17">
+        <f>2*3.1416*F19</f>
+        <v>2.4371200000000002</v>
+      </c>
+      <c r="H19" s="28">
+        <v>2.3837999999999999</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" ref="I19" si="1">ABS(G19-H19)/H19</f>
+        <v>2.2367648292642109E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0E5E5-804E-294A-9445-09408EBC9CE6}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38">
-        <v>0.18870000000000001</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0.20966499999999999</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="37">
-        <v>2</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0.19939999999999999</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0.20966499999999999</v>
-      </c>
-      <c r="J3" s="37">
-        <v>0.22932</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>67</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4">
-        <v>48</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0.50109999999999999</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0.22212699999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.49003999999999998</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>131</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>168</v>
-      </c>
-      <c r="H5" s="39">
-        <v>1.01</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0.91507000000000005</v>
-      </c>
-      <c r="J5">
-        <v>1.0916999999999999</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="39"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="39"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="39"/>
-      <c r="H8" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>